--- a/Banco Central/5/7/3/Compra bonos bancarios 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Compra bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -650,6 +650,24 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C210"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3323,6 +3341,72 @@
         <v>240</v>
       </c>
     </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211">
+        <v>3623</v>
+      </c>
+      <c r="C211">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212">
+        <v>3623</v>
+      </c>
+      <c r="C212">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213">
+        <v>3623</v>
+      </c>
+      <c r="C213">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214">
+        <v>3623</v>
+      </c>
+      <c r="C214">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215">
+        <v>3623</v>
+      </c>
+      <c r="C215">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216">
+        <v>3623</v>
+      </c>
+      <c r="C216">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/5/7/3/Compra bonos bancarios 2021 - Diaria.xlsx
+++ b/Banco Central/5/7/3/Compra bonos bancarios 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C216"/>
+  <dimension ref="A1:C217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3407,6 +3410,17 @@
         <v>240</v>
       </c>
     </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217">
+        <v>3623</v>
+      </c>
+      <c r="C217">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
